--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504416.8293107023</v>
+        <v>518143.1874481201</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>420147.7688895312</v>
+        <v>420147.7688895313</v>
       </c>
       <c r="C4" t="n">
-        <v>420147.7688895312</v>
+        <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>420147.7688895312</v>
+        <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="F4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="G4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="H4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="I4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="J4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="K4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="L4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="M4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="N4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="O4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="P4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37790.43434069166</v>
+        <v>37790.4343406917</v>
       </c>
       <c r="C6" t="n">
-        <v>37790.43434069189</v>
+        <v>37790.43434069175</v>
       </c>
       <c r="D6" t="n">
-        <v>37790.43434069189</v>
+        <v>37790.4343406917</v>
       </c>
       <c r="E6" t="n">
-        <v>-44123.56232769185</v>
+        <v>-44123.56232769191</v>
       </c>
       <c r="F6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="G6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="H6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="I6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="J6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="K6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="L6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="M6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="N6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="O6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
       <c r="P6" t="n">
-        <v>88976.43767230817</v>
+        <v>88976.43767230815</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518143.1874481201</v>
+        <v>434357.7856864951</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37790.4343406917</v>
+        <v>37746.29856201063</v>
       </c>
       <c r="C6" t="n">
-        <v>37790.43434069175</v>
+        <v>37746.29856201051</v>
       </c>
       <c r="D6" t="n">
-        <v>37790.4343406917</v>
+        <v>37746.29856201068</v>
       </c>
       <c r="E6" t="n">
-        <v>-44123.56232769191</v>
+        <v>-58933.57916680582</v>
       </c>
       <c r="F6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="G6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="H6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="I6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="J6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="K6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="L6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="M6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="N6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="O6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
       <c r="P6" t="n">
-        <v>88976.43767230815</v>
+        <v>74166.42083319425</v>
       </c>
     </row>
   </sheetData>
